--- a/brou_detalle_movimientos.xlsx
+++ b/brou_detalle_movimientos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,19 +463,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18/11/2025</t>
+          <t>21/11/2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PAGO SERVICIOS STM Post Pag</t>
+          <t>TRF. E-BROU OTROS</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>9819</v>
+        <v>1250</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -484,7 +484,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>17/11/2025</t>
+          <t>18/11/2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -496,7 +496,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>491</v>
+        <v>98.19</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -505,19 +505,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>17/11/2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TRF. E-BROU OTROS</t>
+          <t>PAGO SERVICIOS STM Post Pag</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>187224</v>
+        <v>49.1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>11000</v>
+        <v>18722.4</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -547,19 +547,19 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>11/11/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PAGO SERVICIOS STM Post Pag</t>
+          <t>TRF. E-BROU OTROS</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>9819</v>
+        <v>11000</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -573,14 +573,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TRF E-BROU OTROS</t>
+          <t>PAGO SERVICIOS STM Post Pag</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>204684</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>98.19</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -589,19 +589,19 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TRF. E-BROU OTROS</t>
+          <t>TRF E-BROU OTROS</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>20468.4</v>
       </c>
       <c r="D8" t="n">
-        <v>4110</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -615,14 +615,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PAGO SERVICIOS STM Post Pag</t>
+          <t>TRF. E-BROU OTROS</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>491</v>
+        <v>4110</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -631,19 +631,19 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>07/11/2025</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TRF E-BROU OTROS</t>
+          <t>PAGO SERVICIOS STM Post Pag</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>49.1</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -720,11 +720,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PAGO A PROVEEDORES</t>
+          <t>TRF E-BROU OTROS</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>7974</v>
+        <v>400</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -736,19 +736,19 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>06/11/2025</t>
+          <t>07/11/2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TRF. E-BROU OTROS</t>
+          <t>PAGO A PROVEEDORES</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>7974</v>
       </c>
       <c r="D15" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>8800</v>
+        <v>15000</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -783,14 +783,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TRANSFERENCIA SPI ENVIADA</t>
+          <t>TRF. E-BROU OTROS</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>52000</v>
+        <v>8800</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -811,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>22275</v>
+        <v>52000</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -820,19 +820,19 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>06/11/2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Comercio: SHERWIN WILLIAMS</t>
+          <t>TRANSFERENCIA SPI ENVIADA</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>123443</v>
+        <v>22275</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -846,14 +846,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Comercio: LA CASA DEL HERRAJE</t>
+          <t>Comercio: SHERWIN WILLIAMS</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>263882</v>
+        <v>1234.43</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -867,14 +867,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PAGO DE SALARIOS</t>
+          <t>Comercio: LA CASA DEL HERRAJE</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>136419</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>26388.2</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -883,16 +883,16 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>04/11/2025</t>
+          <t>05/11/2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TRF E-BROU OTROS</t>
+          <t>PAGO DE SALARIOS</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>500</v>
+        <v>136419</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>03/11/2025</t>
+          <t>04/11/2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PAGO SERVICIOS STM Post Pag</t>
+          <t>TRF E-BROU OTROS</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="D23" t="n">
-        <v>491</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -930,16 +930,37 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>PAGO SERVICIOS STM Post Pag</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>03/11/2025</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>TRF. E-BROU OTROS</t>
         </is>
       </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
         <v>4700</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E25" t="n">
         <v>0</v>
       </c>
     </row>
